--- a/processed_data/staff_data_scraped.xlsx
+++ b/processed_data/staff_data_scraped.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,64 +822,86 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Louisa Terrell</t>
+          <t>Jake Sullivan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Director of the White House Office of Legislative Affairs</t>
+          <t>National Security Advisor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/louisa-terrell/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/jake-sullivan/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Louisa TerrellDirector of the White House Office of Legislative Affairs</t>
+          <t>Jake SullivanNational Security Advisor</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pili Tobar</t>
+          <t>Louisa Terrell</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Deputy White House Communications Director</t>
+          <t>Director of the White House Office of Legislative Affairs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/pili-tobar/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/louisa-terrell/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pili TobarDeputy White House Communications Director</t>
+          <t>Louisa TerrellDirector of the White House Office of Legislative Affairs</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Pili Tobar</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Deputy White House Communications Director</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/pili-tobar/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Pili TobarDeputy White House Communications Director</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Annie Tomasini</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Director of Oval Office Operations</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/annie-tomasini/</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Annie TomasiniDirector of Oval Office Operations</t>
         </is>
